--- a/docs/timesheet_Tine_Vancoillie.xlsx
+++ b/docs/timesheet_Tine_Vancoillie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="0" windowWidth="15200" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="17580" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Dossier afwerken, screendeisings afwerken</t>
+  </si>
+  <si>
+    <t>HTML-template maken: home, info</t>
+  </si>
+  <si>
+    <t>Opstarten drupal en site</t>
+  </si>
+  <si>
+    <t>HTML-template overview + navigatie + CSS</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -613,50 +622,83 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A10" s="7">
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A10" s="9">
+        <v>42671</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A11" s="9">
+        <v>42673</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A12" s="9">
+        <v>42647</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" thickTop="1" thickBot="1">
+      <c r="A13" s="7">
         <v>42684</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A11" s="7">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" thickTop="1" thickBot="1">
+      <c r="A14" s="7">
         <v>42712</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A12" s="7">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" thickTop="1" thickBot="1">
+      <c r="A15" s="7">
         <v>42372</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" s="11" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" s="11" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
-        <f>SUM(C3:C11)</f>
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" thickTop="1"/>
-    <row r="35" ht="46" customHeight="1"/>
-    <row r="36" ht="17" customHeight="1"/>
-    <row r="37" ht="17" customHeight="1"/>
-    <row r="38" ht="17" customHeight="1"/>
+      <c r="C16" s="3">
+        <f>SUM(C3:C14)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="16" thickTop="1"/>
+    <row r="38" ht="46" customHeight="1"/>
     <row r="39" ht="17" customHeight="1"/>
     <row r="40" ht="17" customHeight="1"/>
+    <row r="41" ht="17" customHeight="1"/>
+    <row r="42" ht="17" customHeight="1"/>
+    <row r="43" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>

--- a/docs/timesheet_Tine_Vancoillie.xlsx
+++ b/docs/timesheet_Tine_Vancoillie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="17580" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="17440" yWindow="0" windowWidth="17580" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Milestone 2</t>
   </si>
   <si>
-    <t>Milestone 3</t>
-  </si>
-  <si>
     <t>Planning, moodboard, ideeënbord</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>HTML-template overview + navigatie + CSS</t>
+  </si>
+  <si>
+    <t>thema toevoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toevoegen html.html.twig </t>
+  </si>
+  <si>
+    <t>thema toevoegen + paginas + menu + opzoek werk + css</t>
   </si>
 </sst>
 </file>
@@ -91,7 +97,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,11 +196,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -229,14 +236,16 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
     <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
     <cellStyle name="Totaal" xfId="2" builtinId="25"/>
@@ -506,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -552,7 +561,7 @@
         <v>42663</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -563,7 +572,7 @@
         <v>42664</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10">
         <v>3.5</v>
@@ -574,7 +583,7 @@
         <v>42665</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10">
         <v>3.25</v>
@@ -585,7 +594,7 @@
         <v>42666</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -596,7 +605,7 @@
         <v>42668</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -607,7 +616,7 @@
         <v>42669</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -627,7 +636,7 @@
         <v>42671</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10">
         <v>1.5</v>
@@ -638,7 +647,7 @@
         <v>42673</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10">
         <v>2.75</v>
@@ -646,10 +655,10 @@
     </row>
     <row r="12" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="A12" s="9">
-        <v>42647</v>
+        <v>42678</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -664,41 +673,65 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A14" s="7">
-        <v>42712</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A15" s="7">
+    <row r="14" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A14" s="9">
+        <v>42684</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A15" s="9">
+        <v>42685</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A16" s="9">
+        <v>42687</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21" thickTop="1" thickBot="1">
+      <c r="A17" s="7">
         <v>42372</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" s="11" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <f>SUM(C3:C14)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" ht="16" thickTop="1"/>
-    <row r="38" ht="46" customHeight="1"/>
-    <row r="39" ht="17" customHeight="1"/>
-    <row r="40" ht="17" customHeight="1"/>
+      <c r="C18" s="3">
+        <f>SUM(C3:C16)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" thickTop="1"/>
+    <row r="40" ht="46" customHeight="1"/>
     <row r="41" ht="17" customHeight="1"/>
     <row r="42" ht="17" customHeight="1"/>
     <row r="43" ht="17" customHeight="1"/>
+    <row r="44" ht="17" customHeight="1"/>
+    <row r="45" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>

--- a/docs/timesheet_Tine_Vancoillie.xlsx
+++ b/docs/timesheet_Tine_Vancoillie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17440" yWindow="0" windowWidth="17580" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>thema toevoegen + paginas + menu + opzoek werk + css</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
+  </si>
+  <si>
+    <t>css error oplossen + project opnieuw opstarten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu toevoegen, rollen toevoegen, register pagina-toevoegen, view questions, contactpage, taxonomies toevoegen, </t>
+  </si>
+  <si>
+    <t>rollen aanpassen,transactions toepassen, views aanpassen, add questions</t>
+  </si>
+  <si>
+    <t>aanpassen views en css en transactions</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -230,6 +245,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -523,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -540,10 +560,10 @@
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="20" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -706,32 +726,85 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A17" s="7">
+    <row r="17" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A17" s="9">
+        <v>42713</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="11" customFormat="1" ht="59" thickTop="1" thickBot="1">
+      <c r="A18" s="9">
+        <v>42714</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="11" customFormat="1" ht="40" thickTop="1" thickBot="1">
+      <c r="A19" s="9">
+        <v>42719</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A20" s="9">
+        <v>42721</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="11" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A21" s="13">
+        <v>42723</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="21" thickTop="1" thickBot="1">
+      <c r="A22" s="7">
         <v>42372</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" s="11" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" s="11" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <f>SUM(C3:C16)</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" thickTop="1"/>
-    <row r="40" ht="46" customHeight="1"/>
-    <row r="41" ht="17" customHeight="1"/>
-    <row r="42" ht="17" customHeight="1"/>
-    <row r="43" ht="17" customHeight="1"/>
-    <row r="44" ht="17" customHeight="1"/>
-    <row r="45" ht="17" customHeight="1"/>
+      <c r="C23" s="3">
+        <f>SUM(C3:C20)</f>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" thickTop="1"/>
+    <row r="45" ht="46" customHeight="1"/>
+    <row r="46" ht="17" customHeight="1"/>
+    <row r="47" ht="17" customHeight="1"/>
+    <row r="48" ht="17" customHeight="1"/>
+    <row r="49" ht="17" customHeight="1"/>
+    <row r="50" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
